--- a/public/file_excel_employe/43009623employe.xlsx
+++ b/public/file_excel_employe/43009623employe.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>NIK</t>
   </si>
   <si>
-    <t>No KTP</t>
-  </si>
-  <si>
     <t>Nama</t>
   </si>
   <si>
@@ -43,18 +40,6 @@
     <t>no handphone</t>
   </si>
   <si>
-    <t>asal_sekolah</t>
-  </si>
-  <si>
-    <t>pendidikan akhir</t>
-  </si>
-  <si>
-    <t>tanggal lulus</t>
-  </si>
-  <si>
-    <t>no ijazah</t>
-  </si>
-  <si>
     <t>serang</t>
   </si>
   <si>
@@ -140,6 +125,9 @@
   </si>
   <si>
     <t>2andi3@gmail.com</t>
+  </si>
+  <si>
+    <t>No KK</t>
   </si>
 </sst>
 </file>
@@ -493,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,324 +501,288 @@
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>3423232232323</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>10982</v>
-      </c>
-      <c r="B2">
-        <v>3423232232323</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I2">
         <v>82312053337</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3">
-        <v>10983</v>
-      </c>
-      <c r="B3">
         <v>3423232232325</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>82312053338</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12">
       <c r="A4">
-        <v>10984</v>
-      </c>
-      <c r="B4">
         <v>3423232232327</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I4">
         <v>82312053339</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="A5">
-        <v>10985</v>
-      </c>
-      <c r="B5">
         <v>3423232232329</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>82312053340</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
       <c r="A6">
-        <v>10986</v>
-      </c>
-      <c r="B6">
         <v>3423232232331</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I6">
         <v>82312053341</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
       <c r="A7">
-        <v>10987</v>
-      </c>
-      <c r="B7">
         <v>3423232232333</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>82312053342</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
       <c r="A8">
-        <v>10988</v>
-      </c>
-      <c r="B8">
         <v>3423232232335</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>82312053343</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12">
       <c r="A9">
-        <v>10989</v>
-      </c>
-      <c r="B9">
         <v>3423232232337</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I9">
         <v>82312053344</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:12">
       <c r="A10">
-        <v>10990</v>
-      </c>
-      <c r="B10">
         <v>3423232232339</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>82312053345</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:12">
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:12">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:12">
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:12">
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:12">
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:12">
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="8:8">
